--- a/res/searchlist.xlsx
+++ b/res/searchlist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44AE8D1-98BF-4E07-8F38-12652477999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714D646-39EF-42C4-927B-89301F8EE9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28710" yWindow="3960" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -514,10 +514,10 @@
         <v>6</v>
       </c>
       <c r="B2" s="1">
-        <v>45125</v>
+        <v>45437</v>
       </c>
       <c r="C2" s="1">
-        <v>45126</v>
+        <v>45439</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -534,10 +534,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>45125</v>
+        <v>45437</v>
       </c>
       <c r="C3" s="1">
-        <v>45126</v>
+        <v>45439</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -566,15 +566,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
@@ -583,6 +574,15 @@
     <TaxCatchAll xmlns="a9643c10-2e91-402c-8cb7-0ab76c325e36" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,20 +829,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
     <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/res/searchlist.xlsx
+++ b/res/searchlist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C714D646-39EF-42C4-927B-89301F8EE9EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8701E7C6-6F89-425B-AEF2-2F61D41EBDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28710" yWindow="3960" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25905" yWindow="5550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>cityname</t>
     <phoneticPr fontId="1"/>
@@ -106,6 +106,10 @@
   </si>
   <si>
     <t>USD</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -473,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -534,10 +538,10 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="C3" s="1">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -547,11 +551,51 @@
       </c>
       <c r="F3" s="3">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>45437</v>
+      </c>
+      <c r="C4" s="1">
+        <v>45439</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45437</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45439</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:A3">
+  <conditionalFormatting sqref="A2:A4">
     <cfRule type="containsText" dxfId="1" priority="125" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",A2)))</formula>
     </cfRule>
@@ -566,6 +610,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
@@ -574,15 +627,6 @@
     <TaxCatchAll xmlns="a9643c10-2e91-402c-8cb7-0ab76c325e36" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -829,20 +873,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
     <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/res/searchlist.xlsx
+++ b/res/searchlist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8701E7C6-6F89-425B-AEF2-2F61D41EBDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B7CA3-5BAB-43BC-85C3-309845C1D0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25905" yWindow="5550" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -479,9 +479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -558,10 +556,10 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>45437</v>
+        <v>45439</v>
       </c>
       <c r="C4" s="1">
-        <v>45439</v>
+        <v>45441</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -570,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -610,15 +608,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
@@ -627,6 +616,15 @@
     <TaxCatchAll xmlns="a9643c10-2e91-402c-8cb7-0ab76c325e36" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,20 +871,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
     <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/res/searchlist.xlsx
+++ b/res/searchlist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45B7CA3-5BAB-43BC-85C3-309845C1D0B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B497256-61E2-4364-A489-CB47A5C91F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,34 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>cityname</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>checkin</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>checkout</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>roomtype</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>currency</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>star</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cannes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Single room</t>
   </si>
@@ -108,8 +81,25 @@
     <t>USD</t>
   </si>
   <si>
-    <t>Tokyo</t>
-    <phoneticPr fontId="1"/>
+    <t>cityname</t>
+  </si>
+  <si>
+    <t>checkin</t>
+  </si>
+  <si>
+    <t>checkout</t>
+  </si>
+  <si>
+    <t>roomtype</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>star</t>
+  </si>
+  <si>
+    <t>Bangkok</t>
   </si>
 </sst>
 </file>
@@ -142,18 +132,12 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -168,13 +152,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,113 +481,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5">
+        <v>45491</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45492</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.5">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45437</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45439</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45439</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45441</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3">
-        <v>4</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
-        <v>45439</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45441</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3">
-        <v>5</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1">
-        <v>45437</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45439</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A2:A4">
+  <conditionalFormatting sqref="A3:A4">
     <cfRule type="containsText" dxfId="1" priority="125" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N/A",A3)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="126" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A2)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N/A",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -608,6 +553,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
@@ -616,15 +570,6 @@
     <TaxCatchAll xmlns="a9643c10-2e91-402c-8cb7-0ab76c325e36" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,20 +816,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
     <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/res/searchlist.xlsx
+++ b/res/searchlist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B497256-61E2-4364-A489-CB47A5C91F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAB972-1FCC-4D62-9455-865D2B99B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36045" yWindow="2070" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>作者</author>
+    <author>作成者</author>
   </authors>
   <commentList>
     <comment ref="D1" authorId="0" shapeId="0" xr:uid="{185C75CD-7A27-4D65-98E0-F742742D1B31}">
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
   <si>
     <t>Single room</t>
   </si>
@@ -99,17 +99,20 @@
     <t>star</t>
   </si>
   <si>
-    <t>Bangkok</t>
+    <t>Nagoya</t>
+  </si>
+  <si>
+    <t>Tokyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ad Dammām </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,13 +126,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -152,13 +148,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -167,7 +158,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -466,11 +457,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.875" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
@@ -480,72 +471,128 @@
     <col min="6" max="6" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5">
-        <v>45491</v>
-      </c>
-      <c r="C2" s="5">
-        <v>45492</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="2">
+        <v>45437</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45439</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="F3" s="2"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45437</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45439</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" ht="16.5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="F4" s="2"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45437</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45439</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45437</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45439</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45437</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45439</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="A3:A4">
-    <cfRule type="containsText" dxfId="1" priority="125" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A3)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="126" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",A3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -553,26 +600,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="a9643c10-2e91-402c-8cb7-0ab76c325e36" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005125C45B4B240B4DAD2BF56E04A654EF" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f543fffae326af8ce883ab43403167f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="726e3e44-31dc-4c4d-a2b7-73001e1ed204" xmlns:ns3="a9643c10-2e91-402c-8cb7-0ab76c325e36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fe2d1359a036be71f668301f2175438" ns2:_="" ns3:_="">
     <xsd:import namespace="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
@@ -815,26 +842,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="a9643c10-2e91-402c-8cb7-0ab76c325e36" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
-    <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4B1377F-2044-4EE4-A384-2DC01BD0289A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -851,4 +879,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
+    <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/res/searchlist.xlsx
+++ b/res/searchlist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DAB972-1FCC-4D62-9455-865D2B99B353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201954A3-9A30-41B5-968C-39EF5FA56E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36045" yWindow="2070" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="3075" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Single room</t>
   </si>
@@ -105,7 +105,7 @@
     <t>Tokyo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ad Dammām </t>
+    <t>Cannes</t>
   </si>
 </sst>
 </file>
@@ -160,28 +160,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -457,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -493,13 +472,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2">
-        <v>45437</v>
+        <v>45802</v>
       </c>
       <c r="C2" s="2">
-        <v>45439</v>
+        <v>45804</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -508,18 +487,18 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>45437</v>
+        <v>45802</v>
       </c>
       <c r="C3" s="2">
-        <v>45439</v>
+        <v>45804</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -528,18 +507,18 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>45437</v>
+        <v>45802</v>
       </c>
       <c r="C4" s="2">
-        <v>45439</v>
+        <v>45804</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -552,44 +531,12 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45437</v>
-      </c>
-      <c r="C5" s="2">
-        <v>45439</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45437</v>
-      </c>
-      <c r="C6" s="2">
-        <v>45439</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/res/searchlist.xlsx
+++ b/res/searchlist.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201954A3-9A30-41B5-968C-39EF5FA56E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A315E2-9A33-4167-A9C3-DD42059E2CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3075" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-180" yWindow="120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -99,13 +99,13 @@
     <t>star</t>
   </si>
   <si>
-    <t>Nagoya</t>
-  </si>
-  <si>
-    <t>Tokyo</t>
-  </si>
-  <si>
-    <t>Cannes</t>
+    <t>Al-Kharj</t>
+  </si>
+  <si>
+    <t>Oyala</t>
+  </si>
+  <si>
+    <t>Maputo</t>
   </si>
 </sst>
 </file>
@@ -160,7 +160,48 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -438,7 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -472,13 +515,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2">
-        <v>45802</v>
+        <v>45856</v>
       </c>
       <c r="C2" s="2">
-        <v>45804</v>
+        <v>45857</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>0</v>
@@ -492,13 +535,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2">
-        <v>45802</v>
+        <v>45856</v>
       </c>
       <c r="C3" s="2">
-        <v>45804</v>
+        <v>45857</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -507,7 +550,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -515,10 +558,10 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>45802</v>
+        <v>45856</v>
       </c>
       <c r="C4" s="2">
-        <v>45804</v>
+        <v>45857</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>0</v>
@@ -527,7 +570,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">

--- a/res/searchlist.xlsx
+++ b/res/searchlist.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A315E2-9A33-4167-A9C3-DD42059E2CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916B05BB-89EA-4EC8-960B-59AA66B9D4A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27945" yWindow="1500" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="20">
   <si>
     <t>Single room</t>
   </si>
@@ -106,6 +106,40 @@
   </si>
   <si>
     <t>Maputo</t>
+  </si>
+  <si>
+    <t>200-65998</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">location_slug </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>city_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cambridge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200-14537</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amman</t>
+  </si>
+  <si>
+    <t>maputo-cidade-mozambique</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cambridge-massachusetts</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Valencia</t>
   </si>
 </sst>
 </file>
@@ -160,48 +194,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -477,23 +470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="22.25" customWidth="1"/>
-    <col min="3" max="3" width="20.75" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="18.375" customWidth="1"/>
-    <col min="6" max="6" width="18.75" customWidth="1"/>
+    <col min="1" max="1" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -512,8 +504,14 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -533,7 +531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -552,8 +550,10 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -572,14 +572,489 @@
       <c r="F4" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C6" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C7" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>46009</v>
+      </c>
+      <c r="C11" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <v>46009</v>
+      </c>
+      <c r="C12" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2">
+        <v>46009</v>
+      </c>
+      <c r="C13" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45856</v>
+      </c>
+      <c r="C16" s="2">
+        <v>45857</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>3</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="2">
+        <v>46009</v>
+      </c>
+      <c r="C17" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2">
+        <v>46009</v>
+      </c>
+      <c r="C18" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2">
+        <v>46009</v>
+      </c>
+      <c r="C19" s="2">
+        <v>46010</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1">
+        <v>3</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -590,6 +1065,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005125C45B4B240B4DAD2BF56E04A654EF" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f543fffae326af8ce883ab43403167f4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="726e3e44-31dc-4c4d-a2b7-73001e1ed204" xmlns:ns3="a9643c10-2e91-402c-8cb7-0ab76c325e36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8fe2d1359a036be71f668301f2175438" ns2:_="" ns3:_="">
     <xsd:import namespace="726e3e44-31dc-4c4d-a2b7-73001e1ed204"/>
@@ -832,7 +1316,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="726e3e44-31dc-4c4d-a2b7-73001e1ed204">
@@ -843,16 +1327,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4B1377F-2044-4EE4-A384-2DC01BD0289A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -871,7 +1354,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0970B50-FB58-4F4C-8B98-0182BA5F4A0A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -880,12 +1363,4 @@
     <ds:schemaRef ds:uri="a9643c10-2e91-402c-8cb7-0ab76c325e36"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6A159A8-4F9A-4339-90ED-D69B23EE0EC6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>